--- a/Rapport/Gestion_de_projet/Gantt.xlsx
+++ b/Rapport/Gestion_de_projet/Gantt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/COURS/M1/Projet Banques/Rapport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/BanquesCooperatives/Rapport/Gestion_de_projet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643F7CDE-F9AD-6F44-9E71-B2F0A4E2C20F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF755E2-9C73-4F42-A207-8D317BF86C69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E692C6A9-E0D6-0740-B459-48AD2F3E19F8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Tâches</t>
   </si>
@@ -136,13 +136,16 @@
   </si>
   <si>
     <t>Amélioration visuel des cartes</t>
+  </si>
+  <si>
+    <t>Création d'un package R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -183,6 +186,12 @@
     <font>
       <sz val="11"/>
       <color theme="4" tint="0.59999389629810485"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -363,12 +372,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -381,9 +387,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -394,9 +397,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -405,8 +405,30 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,315 +746,333 @@
   <dimension ref="B2:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="39" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="21.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="39" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="2" customWidth="1"/>
+    <col min="12" max="13" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:11" s="31" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="33" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="4"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="16"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="14"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="16"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="14"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="7"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="9"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="10"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="18"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="4"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
+      <c r="K20" s="3"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="8"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C24" s="1" t="s">
@@ -1043,40 +1083,40 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="30"/>
+      <c r="D27" s="27"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="22"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C29" s="4" t="s">
+      <c r="D28" s="20"/>
+    </row>
+    <row r="29" spans="2:11" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
